--- a/salary_before.xlsx
+++ b/salary_before.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE31C4B-5C56-437F-B74B-AEB203554EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887DC40E-D08B-4D08-82F3-3D8DD5989EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1477" windowWidth="20040" windowHeight="14003" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53120" yWindow="1920" windowWidth="26720" windowHeight="18670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="A팀" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,21 +47,6 @@
     <t>기본급</t>
   </si>
   <si>
-    <t>초과근무시간(시간)</t>
-  </si>
-  <si>
-    <t>직책수당(원)</t>
-  </si>
-  <si>
-    <t>자격증수당(원)</t>
-  </si>
-  <si>
-    <t>위험수당(원)</t>
-  </si>
-  <si>
-    <t>수당합계(원)</t>
-  </si>
-  <si>
     <t>E001</t>
   </si>
   <si>
@@ -132,6 +117,26 @@
   </si>
   <si>
     <t>홍길동</t>
+  </si>
+  <si>
+    <t>초과근무시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직책수당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증수당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험수당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수당합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -510,7 +515,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -519,10 +524,10 @@
     <col min="2" max="2" width="6.4375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.4375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -540,30 +545,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>3000000</v>
@@ -582,13 +587,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>3200000</v>
@@ -607,13 +612,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>3100000</v>
@@ -632,13 +637,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>2800000</v>
@@ -657,13 +662,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>2900000</v>
@@ -682,13 +687,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>3500000</v>
@@ -707,13 +712,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
         <v>3400000</v>
@@ -732,13 +737,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>3300000</v>
@@ -757,13 +762,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
         <v>3000000</v>
@@ -782,13 +787,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
         <v>3100000</v>
